--- a/docs/excel/TGiftPro.xlsx
+++ b/docs/excel/TGiftPro.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="420" windowWidth="26175" windowHeight="11235" tabRatio="204"/>
+    <workbookView xWindow="390" yWindow="450" windowWidth="26175" windowHeight="11205" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TGiftPro" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -124,8 +124,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>概率万分比 gift表物品ID-概率</t>
+    <t>概率万分比gift表物品ID-概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-1250;2-1000;3-750;4-750;5-500;6-500;7-390;8-250;9-200;10-100;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11-25;12-10;13-1250;14-1000;15-750;16-750;17-500;18-25</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,10 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A8" sqref="A8:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,21 +640,21 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5">
@@ -652,7 +668,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>200</v>
       </c>
       <c r="C7" s="5">
@@ -735,6 +751,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/docs/excel/TGiftPro.xlsx
+++ b/docs/excel/TGiftPro.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -109,45 +109,26 @@
     <t>ListSpliter: ";"</t>
   </si>
   <si>
-    <r>
-      <t>1-1250;2-1000;3-750;4-750;5-500;6-500;7-390;8-250;9-200;10-100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;11-25;12-10;13-1250;14-1000;15-750;16-750;17-500;18-25</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>概率万分比gift表物品ID-概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1-1250;2-1000;3-750;4-750;5-500;6-500;7-390;8-250;9-200;10-100;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11-25;12-10;13-1250;14-1000;15-750;16-750;17-500;18-25</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>1-2000,2-2000,3-1500,4-1500,5-800,6-800,7-500,8-500,9-200,10-100,11-50,12-50,13-0,14-0,15-0,16-0,17-0,18-0</t>
+  </si>
+  <si>
+    <t>1-1790,2-1500,3-1300,4-1300,5-1000,6-1000,7-800,8-800,9-200,10-100,11-50,12-50,13-50,14-25,15-25,16-10,17-0,18-0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1334,2-1300,3-1200,4-1200,5-1000,6-1000,7-1000,8-1000,9-350,10-200,11-100,12-100,13-100,14-50,15-50,16-10,17-5,18-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -170,15 +151,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -574,8 +549,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,10 +608,10 @@
         <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -644,38 +619,38 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C6" s="5">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>200</v>
+        <v>501</v>
       </c>
       <c r="C7" s="5">
         <v>999999</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/excel/TGiftPro.xlsx
+++ b/docs/excel/TGiftPro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="450" windowWidth="26175" windowHeight="11205" tabRatio="204"/>
+    <workbookView xWindow="28770" yWindow="345" windowWidth="26175" windowHeight="11205" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TGiftPro" sheetId="1" r:id="rId1"/>
@@ -113,15 +113,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-2000,2-2000,3-1500,4-1500,5-800,6-800,7-500,8-500,9-200,10-100,11-50,12-50,13-0,14-0,15-0,16-0,17-0,18-0</t>
-  </si>
-  <si>
-    <t>1-1790,2-1500,3-1300,4-1300,5-1000,6-1000,7-800,8-800,9-200,10-100,11-50,12-50,13-50,14-25,15-25,16-10,17-0,18-0</t>
+    <t>1-1334;2-1300;3-1200;4-1200;5-1000;6-1000;7-1000;8-1000;9-350;10-200;11-100;12-100;13-100;14-50;15-50;16-10;17-5;18-1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1-1334,2-1300,3-1200,4-1200,5-1000,6-1000,7-1000,8-1000,9-350,10-200,11-100,12-100,13-100,14-50,15-50,16-10,17-5,18-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>1-2000;2-2000;3-1500;4-1500;5-800;6-800;7-500;8-500;9-200;10-100;11-50;12-50;13-0;14-0;15-0;16-0;17-0;18-0</t>
+  </si>
+  <si>
+    <t>1-1790;2-1500;3-1300;4-1300;5-1000;6-1000;7-800;8-800;9-200;10-100;11-50;12-50;13-50;14-25;15-25;16-10;17-0;18-0</t>
   </si>
 </sst>
 </file>
@@ -550,7 +549,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -622,7 +621,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -636,7 +635,7 @@
         <v>500</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,7 +649,7 @@
         <v>999999</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/excel/TGiftPro.xlsx
+++ b/docs/excel/TGiftPro.xlsx
@@ -117,10 +117,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>1-1790;2-1500;3-1300;4-1300;5-1000;6-1000;7-800;8-800;9-200;10-100;11-50;12-50;13-50;14-25;15-25;16-10;17-0;18-0</t>
+  </si>
+  <si>
     <t>1-2000;2-2000;3-1500;4-1500;5-800;6-800;7-500;8-500;9-200;10-100;11-50;12-50;13-0;14-0;15-0;16-0;17-0;18-0</t>
-  </si>
-  <si>
-    <t>1-1790;2-1500;3-1300;4-1300;5-1000;6-1000;7-800;8-800;9-200;10-100;11-50;12-50;13-50;14-25;15-25;16-10;17-0;18-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -549,7 +550,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -621,7 +622,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,7 +636,7 @@
         <v>500</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/excel/TGiftPro.xlsx
+++ b/docs/excel/TGiftPro.xlsx
@@ -113,15 +113,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1334;2-1300;3-1200;4-1200;5-1000;6-1000;7-1000;8-1000;9-350;10-200;11-100;12-100;13-100;14-50;15-50;16-10;17-5;18-1</t>
+    <t>1-2000;2-0;3-50;4-500;5-800;6-0;7-200;8-0;9-100;10-0;11-1500;12-0;13-2000;14-0;15-50;16-500;17-800;18-1500</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1-1790;2-1500;3-1300;4-1300;5-1000;6-1000;7-800;8-800;9-200;10-100;11-50;12-50;13-50;14-25;15-25;16-10;17-0;18-0</t>
-  </si>
-  <si>
-    <t>1-2000;2-2000;3-1500;4-1500;5-800;6-800;7-500;8-500;9-200;10-100;11-50;12-50;13-0;14-0;15-0;16-0;17-0;18-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1-1790;2-25;3-50;4-800;5-1000;6-0;7-200;8-10;9-100;10-0;11-1300;12-50;13-1500;14-25;15-50;16-800;17-1000;18-1300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1334;2-50;3-100;4-1000;5-1000;6-5;7-350;8-10;9-200;10-1;11-1200;12-100;13-1300;14-50;15-100;16-1000;17-1000;18-1200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,7 +551,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -622,7 +623,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,7 +651,7 @@
         <v>999999</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/excel/TGiftPro.xlsx
+++ b/docs/excel/TGiftPro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="345" windowWidth="26175" windowHeight="11205" tabRatio="204"/>
+    <workbookView xWindow="375" yWindow="165" windowWidth="27870" windowHeight="12090" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TGiftPro" sheetId="1" r:id="rId1"/>
@@ -113,15 +113,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-2000;2-0;3-50;4-500;5-800;6-0;7-200;8-0;9-100;10-0;11-1500;12-0;13-2000;14-0;15-50;16-500;17-800;18-1500</t>
+    <t>1-1334;2-50;3-100;4-1000;5-1000;6-5;7-350;8-10;9-200;10-1;11-1200;12-100;13-1300;14-50;15-100;16-1000;17-1000;18-1200</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1-1790;2-25;3-50;4-800;5-1000;6-0;7-200;8-10;9-100;10-0;11-1300;12-50;13-1500;14-25;15-50;16-800;17-1000;18-1300</t>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>;2-0;3-50;4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>;5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>;6-0;7-200;8-0;9-100;10-0;11-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>;12-0;13-2000;14-0;15-50;16-500;17-800;18-1500</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1-1334;2-50;3-100;4-1000;5-1000;6-5;7-350;8-10;9-200;10-1;11-1200;12-100;13-1300;14-50;15-100;16-1000;17-1000;18-1200</t>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>90;2-25;3-50;4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>;5-1000;6-0;7-200;8-10;9-100;10-0;11-1300;12-50;13-1500;14-25;15-50;16-800;17-1000;18-1300</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +645,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -622,8 +716,8 @@
       <c r="C5" s="5">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -636,8 +730,8 @@
       <c r="C6" s="5">
         <v>500</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -651,7 +745,7 @@
         <v>999999</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/excel/TGiftPro.xlsx
+++ b/docs/excel/TGiftPro.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -217,6 +217,10 @@
       <t>;5-1000;6-0;7-200;8-10;9-100;10-0;11-1300;12-50;13-1500;14-25;15-50;16-800;17-1000;18-1300</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -645,7 +649,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -675,10 +679,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
